--- a/500all/speech_level/speeches_CHRG-114hhrg22124.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg22124.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="280">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>412473</t>
   </si>
   <si>
-    <t>Trey Gowdy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gowdy. Good morning. Welcome. The Subcommittee on Immigration and Border Security will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time. We welcome everyone to today's hearing, entitled New Orleans: How the Crescent City Became a Sanctuary City.    I will recognize myself for an opening statement and then my friend from California. I will introduce the panelists en banc and then recognize you individually for your opening statements.    It is as close as I will ever come to being a judge, but there we have it.    Time and time and time again, our Nation has witnessed the tragic consequences of this Administration's failure to enforce immigration law. Witnessing these tragedies is unsettling enough, but it pales in comparison to the grief and the anguish and the separation experienced by the families of those victimized.    But, today, we are not here merely to discuss the failure to enforce the law. It is even more disconcerting than that. We are here today because the Department of Justice, the entity that is supposed to be the chief enforcer of the law, is aiding and abetting local governments in the failure to enforce the law. Once again, the temptation to make a political point has transcended the obligation to take care that the law be faithfully executed.    Under current policy, the New Orleans Police Department prevents its officers and employees from communicating with U.S. Immigration and Customs Enforcement regarding the immigration status of an arrestee.    In May of 2010, New Orleans Mayor Mitchell Landrieu sent a letter to then Attorney General Holder requesting DOJ ``transform the New Orleans Police Department.'' Based on the Department of Justice report, current Labor Secretary, then Civil Rights Division head, Thomas Perez, filed a lawsuit against the city of New Orleans and the police department alleging various civil rights violations.    On the basis of that lawsuit, the parties entered into a consent decree in 2012, which was approved by a Federal court in 2013. This consent decree stated the New Orleans Police Department officers, ``shall not take law enforcement action on the basis of actual or perceived immigration status, including the initiation of stops or other field contacts.''    Now, let me read the salient part of that again: Police officers shall not take law enforcement action on the basis of actual immigration status.    And on February 28, 2016, New Orleans Police Department issued a written policy, entitled ``Immigration Status,'' which, number one, prohibits officers from inquiring about an individual's immigration status; number two, prohibits officers from assisting or supporting ICE'S immigration enforcement; and number three, mandates any ICE request for support or assistance be declined.    The New Orleans Police Department policy was not only vetted but, ``enthusiastically'' approved and supported by DOJ's Civil Rights Division. It was also reviewed and approved by DHS. The Department of Justice and Department of Homeland Security enthusiastically approve and support failure of law enforcement to take note of Federal immigration laws.    In addition to being mind-numbingly antithetical to the faithful execution of the law, which is among the primary responsibilities of the executive branch, this New Orleans policy statement appears to violate section 8 U.S.C. code, 1373, which provides no person or agency may prohibit or restrict a Federal, State, or local agency from sending, requesting, receiving, or exchanging information with ICE regarding unlawfully present aliens.    On May 28 of this year, Chairman Goodlatte sent a letter to now Attorney General Lynch demanding that she explain DOJ's role in initiating litigation against the city of New Orleans and the resulting consent decree and provide the legal justification for approving the sanctuary policies enacted by the police department.    On May 31 of this year, DOJ Inspector General Michael Horowitz issued a memo to the Assistant Attorney General for Justice Programs in response to a request to investigate allegations that over 140 State and local jurisdictions received DOJ grant funds, and they may be in violation of Federal law. Specifically, the inspector general was requested to investigate allegations of the 140 jurisdictions who are recipients of funding from the Department of Justice are in violation of title 8 U.S.C., section 1373.    For those of you who may be struck by the duplicity of the chief Federal law enforcement entity providing grant money to State and municipalities who specifically fail to assist in the enforcement of Federal law, you are not alone. The inspector general found the laws and policies in several jurisdictions go beyond regulating responses to ICE detainers and also address, in some way, the sharing of information with Federal immigration authorities.    After specifically reviewing the language of the New Orleans Police Department policy, the inspector general found, and I quote: In our view, subsection (a) of the NOPD policy would not serve as a `savings clause' in addressing section 1373. Thus, unless the understanding of NOPD's employees is that they are not prohibited or restricted from sharing immigration status information with ICE, the policy would be inconsistent with Section 1373.''    On July 7, DOJ's Office of Justice Programs determined section 1373 is, ``an applicable Federal law for purposes of determining statutory eligibility for relevant DOJ grant funding.'' Yet despite the requirement of section 1373, DOJ awarded the police department of New Orleans approximately $2 million in grants for fiscal year 2015.    That very same day, July 7, DOJ responded to Chairman Goodlatte's letter. They outlined the policy, but they failed to explain how the New Orleans' policies are lawful, which was a pretty important part of the letter in the first place.    Then, last Friday--last Friday--September 23, just a few days after our hearing was announced, we received a letter from the Department of Justice claiming the revised policy the New Orleans Police Department had issued did comply with 1373. However, this revised policy makes no mention of part B of section 1373. And in addition, DOJ has not provided this Committee with any indication of how officers will be trained to implement this revised policy or how seemingly minor changes to the text will ensure New Orleans will not be operating as a sanctuary city, which leads us to why we are here today.    Not only does this place ICE agents and officers at greater risk when they are forced to arrest criminal aliens who are no longer in a secure jail facility, but instead, in public places, where they can more readily escape or access a weapon, but it also prevents officers from accomplishing their ultimate goal, which is public safety. We already know there are cities more interested in providing sanctuary for criminals than safe haven for our very own citizens. We know there are cities who clamor for the Federal Government to assert itself into matters that are not inherently Federal in nature but refuse to assist Federal law enforcement in matters that actually are inherently Federal.    And to put this in terms that almost anyone can understand, State and local law enforcement can be trusted to provide security for Members of Congress both here and in our home districts. They can be entrusted to enforce murder laws, child sex laws, kidnapping laws. They can participate in Federal task forces on terrorism and narcotics trafficking, but God forbid they lift a finger to assist in the enforcement of Federal immigration laws.    But for the Department of Justice to go as far to seek a consent decree to actually inhibit the ability of the Federal Government to enforce Federal law is stunning, even for a Department of Justice that has, unfortunately, become increasingly politicized. The consent decree can be interpreted to require New Orleans adopt policies that require its officers to actually violate Federal law.    Let me repeat that one more time: This Administration's Department of Justice is actually requiring New Orleans police officers to break the law in an effort to further their political agenda.    We have had multiple hearings on those that have been victimized by sanctuary cities. We have heard from their families. We are well aware of the tragic consequences. This is not a theoretical conversation in some law school conference room. This is real life with real victims and real grieving family members. Illegal immigration is not a victimless crime.    Once you weaken the law, you weaken it forever, and once you put politics above the blind application of the law, it is done forever. And once you decide State and local law enforcement are good enough to protect us when we are back home in our districts but not good enough to be trusted to assist in the execution of the law, good luck in reversing that.    With that, I would recognize the gentlelady from California.</t>
   </si>
   <si>
     <t>400245</t>
   </si>
   <si>
-    <t>Zoe Lofgren</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Lofgren. Thank you, Mr. Chairman. Today, we are again devoting time to what the majority calls sanctuary cities. It is ironic that my Republican colleagues today argue against local policies in favor of a top-down mandate from Washington. It is a question why the majority believes that it knows better than several hundred State and local police departments across the country that have embraced community trust policing policies precisely because they believe that approach makes us all safer. And for the Republicans to question the need for good community policing approaches at this moment, when reports of tragic police shootings dominate the news, seems nonsensical.    The fact is we could have addressed the Republican concerns with sanctuary cities and many other immigration matters if we had devoted time spent on polemics and diversions instead of to fixing our broken immigration system through comprehensive reform.    When it comes to so-called sanctuary cities, this is what Richard Biehl, the police chief of Dayton, Ohio, not a place many think of as a sanctuary city, said over a year ago, when he testified before the Judiciary Committee, ``These policies allow us to focus our limited resources on our primary mission, crime solving and community safety. They also send a message that victims of violent crime, human trafficking, and other crime should never be afraid to reach out for help due to fear of the immigration consequences.''    I note that in the Department of Justice report investigating the New Orleans Police Department dated March 16, 2011, it said, ``Minority groups nearly uniformly said that the police rarely reach out to them for any purpose.'' One member of a Vietnamese community organization reported that, ``A lot of young Vietnamese people who get shot in this community, we know who shot them, but the New Orleans police won't do anything. They don't talk to us. They don't build community relationships.''    I agree with Chief Biehl, and I know from my experience as a county supervisor and Member of Congress that law enforcement and local officials can work cooperatively with community groups and the Federal Government to come to a consensus position that preserves community policing and prioritizes serious criminals for immigration enforcement and removal.    I also agree with Secretary Johnson's prior statements to this Committee that imposing Federal mandates on local law enforcement by withholding funds would be a huge setback in efforts to improve the relationship between DHS, State, and local law enforcement, and communities around the country.    With respect to New Orleans, the context, like most things in the Big Easy, is a little bit different. Upon taking office, Mayor Landrieu requested the Department of Justice Civil Rights Division engage in a review of the police department. He recognized that a history of civil rights violations by the New Orleans Police Department had undermined trust with the community and reform was necessary.    Of course, the vast majority of New Orleans Police Department officers honestly and conscientiously performed and continued to perform their duties. But I hope that my Republican colleagues are not here to defend the actions of a few that caused such great harm over the years in New Orleans.    The history of abuse by the department has been well documented. The facts are incontrovertible. Under Mayor Landrieu and Superintendent of Police Michael Harrison with the support of the Department of Justice and working with the local community, New Orleans entered into a consent decree and has adopted a bias-free policing policy. The policy ensures that immigrants can report crimes and serve as witnesses without retribution. It also makes clear that information regarding the citizenship and immigration status will be shared with Federal immigration authorities when required by Federal or State law.    Out of an abundance of caution, New Orleans has been working with the Justice Department to revise this language to guarantee its compliance with applicable Federal laws. We now have this revised policy in place. These policies, while not self-identified as sanctuary city polices, are examples of smart, effective community policing tailored by and for the communities in New Orleans.    Many are hopeful that this hard work, done collaboratively with the department and community groups, sets New Orleans on a path to safer streets and better police relations with citizens of all backgrounds. But here comes the Republican Congress to the rescue. They are questioning the legality of a policy that has already been revised to ensure that it is in compliance with Federal law.    Members who have had nothing to do with New Orleans are here to tell the local police and civil leaders how to do their job, even though the New Orleans Police Department says the Republican approach will undermine public safety and make their jobs harder. They are pursuing a line of argument that jeopardizes critical funding, which supports public safety, community policing, and crimes victims services.    With all due respect, I say to my colleagues on the other side of the aisle: let's let local law enforcement and the elected officials in city government do their job, and we should focus on ours. In this Congress, we have gone to the floor to vote on bills to deport DREAMers, to deport the parents of U.S. citizens, to deport vulnerable children fleeing persecution and sex trafficking, and to halt refugee processing amidst the civil war in Syria that has displaced millions.    Thankfully, these proposals have ultimately gone nowhere, but we had the votes to pass comprehensive immigration in the last Congress. The bipartisan bill passed in 2013 would not only have grown our economy, help to shrink our budget deficit; it would have made our communities safer. Bringing people out of shadows and putting them on a path to citizenship would have further enhanced public safety.    If the Republican leadership had given comprehensive immigration reform the same opportunity for a vote that all of these other measures have received, it would be the law today. So let's do the people's business, work to pass immigration reform, and I thank the Chairman.    I yield back the balance of my time.</t>
   </si>
   <si>
@@ -73,54 +67,36 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Goodlatte</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Goodlatte. Thank you, Mr. Chairman, and thank you for holding this important hearing.    Sanctuary cities refuse to cooperate with U.S. Immigration and Customs Enforcement in its enforcement of Federal immigration laws. The proliferation of sanctuary cities has resulted in thousands of criminal aliens being released into our neighborhoods to commit more crimes. Sanctuary cities violate Federal law. Two decades ago, Congress enacted a provision, title 8, section 1373, designed specifically to prevent jurisdictions from enacting policies that prohibit their employees from sharing information with ICE about illegally present or criminal aliens.    There are more than 300 sanctuary jurisdictions in the United States. One of these is the city of New Orleans. In 2010, the current major of New Orleans invited the Department of Justice to review the policies of the New Orleans Police Department, apparently in part to transform New Orleans into a sanctuary city. Former Attorney General Eric Holder, former Assistant Attorney General for the Civil Rights Division Thomas Perez, now Secretary of Labor, and the mayor appear to have colluded to have the Department of Justice file a lawsuit against the city, and then have DOJ and the city enter into a settlement agreement or a consent decree that would forbid the New Orleans Police Department from cooperating with ICE.    The resulting consent decree actually required the New Orleans Police Department to develop a plan that prohibited officers from taking any enforcement action based on an individual's immigration status. In February of this year, pursuant to the consent decree, the New Orleans Police Department issued a policy prohibiting officers from inquiring about an individual's immigration status.    More troubling, it generally prohibited officers from assisting or supporting ICE'S immigration enforcement, and it required officers to decline all ICE requests for support or assistance. Thus, New Orleans could claim that DOJ's heavy hand forced it to become a sanctuary city and endanger its residents when in fact it was a willing participant.    The consent decree was a shocking action on the part of the Department of Justice. The chief law enforcement agency of the Federal Government acted to impede the enforcement of Federal law. In addition, the policy appears to be in direct violation of section 1373. Yet it was--excuse me. Yet it was reviewed and approved in advance by the Department of Justice Civil Rights Division. This appears to be another example of the current DOJ's cavalier disregard for the Constitution and the law.    Chairman Gowdy and I sent a letter to the attorney general in May asking that she explain how the New Orleans Police Department policy complies with section 1373 and requesting that she provide communications with New Orleans concerning the development of the policy. DOJ's response was almost completely nonresponsive.    The DOJ inspector general issued a report in May that expressed concern that ambiguous language in some sanctuary policies may cause local officers to comply with such policies in a way that would violate section 1373. The inspector general noted that, ``unless the understanding of New Orleans Police Department's employees is that they are not prohibited or restricted from sharing immigration status with ICE, the policy would be inconsistent with section 1373.'' I have asked for the training materials that the New Orleans Police Department gave to its officers to ensure their understanding of section 1373. I have been provided with nothing.    This leads to a troubling possibility that, through a lack of training, the New Orleans Police Department has, in practice, violated section 1373.    Finally, just 4 days before this hearing, after this Committee's persistent efforts to expose this disturbing matter and demand action, the Department of Justice informed the Committee that the New Orleans Police Department had revised its sanctuary policy.    Specifically, the NOPD policy now states that it is to be construed in accordance with section 1373(a). On that basis, DOJ has represented to the Federal court and this Committee that the policy now complies with section 1373.    Unfortunately, this coordinated effort by DOJ and the city of New Orleans to preserve the patina of legality of their consent decree clearly fails. Section 1373(b) prohibits jurisdictions from restricting their employees from requesting information from ICE, maintaining such information, and exchanging information with other agencies. Nowhere does the revised policy require compliance with this subsection.    A NOPD officer that arrests an individual who is believed to be illegally present is most likely going to contact ICE to request information regarding that individual's immigration status. However, the revised NOPD policy expressly prohibits the New Orleans Police Department officers from making inquiries into an individual's immigration status. DOJ and NOPD have provided no evidence that NOPD, in practice, has complied with section 1373.    They have provided no training material showing that officers have or will be properly trained regarding compliance with section 1373.    The New Orleans Police Department received over $2 million in law enforcement grants from the Department of Justice in fiscal year 2015. As Attorney General Lynch has essentially admitted to John Culberson, Chairman of House Appropriation Committee's Subcommittee with jurisdiction over the Department of Justice, if the New Orleans Police Department is in violation of section 1373, it would be disqualified from receiving these grants.    Yet the Department of Justice has made no effort to cut off grants to New Orleans. Even aside from the likely violation of Federal law, the Department of Justice's actions in this case show that the protection of our constituents and the enforcement of Federal law no longer seem to be priorities of the Department. In fact, the Department of Justice seems to view them as roadblocks impeding its chosen policy preferences.    I want to thank our witnesses for appearing today, and I look forward to their testimony and to learning more about how this new New Orleans Police Department policy, including why it still prohibits compliance with section 1373(b).    Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. The gentleman from Virginia yields back.    The Chair will now recognize the gentleman from Michigan, the Ranking Member of the full Committee, Mr. Conyers.</t>
   </si>
   <si>
-    <t>Conyers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Conyers. Thank you, Chairman Gowdy, and I join in welcoming all of our witnesses. I would like to preface my remarks regarding today's hearing, which deals with community policing policies by observing that our Nation's conscience continue to be rocked by a series of tragic events involving law enforcement and the loss of too many Black lives. In our courtrooms, in our streets and on television, we confront a never-ending body count.    Earlier this summer, my congressional colleagues and I staged an unprecedented sit-in just to try to get a vote on commonsense gun legislation. In this Committee, Chairman Goodlatte and I formed a bipartisan policing strategies working group to begin examining how we can best ensure that Congress takes responsibility for the conversation about race and policing in America.    I believe this working group is one of the best examples of how we can come together at a time when the Nation needs our leadership to reduce the levels of violence in our communities. And just this past week, I joined my Congressional Black Caucus colleagues in protest of yet another series of senseless killings of Black men and Black children by police in Cleveland, Tulsa, and Charlotte.    When you add to this volatile mix the attacks on the police officers in Baton Rouge and Dallas, the Nation risks being forced into a battle of whose lives matter most. We mourn the loss of all of these lives and want to see an end to this violence across the United States, including in the iconic American city of New Orleans.    To achieve this, first, we need to ensure police accountability, prevent violent attacks on law enforcement, and improve the relationship between police officers and the communities that they are sworn to protect and serve. Community trust police--community trust policies are integral to smart law enforcement for diverse communities, including those with immigration populations like New Orleans and my district in Michigan.    Secondly, studies show that crime rates actually decrease after localities adopt community trust policies. Further, these studies find that strong-arm policies, such as Secure Communities, fail to lower crime rates. Instead, they make communities less safe because residents become more fearful and, therefore, less likely to report criminal activity or cooperate with investigations.    We share the common goal of community safety. To suggest that local leaders and law enforcement officials are purposefully pursuing policies that make their communities less safe is simply false and offensive.    Finally, if we are looking for real solutions, we should be undertaking comprehensive immigration reform. Unfortunately, this hearing, which pejoratively refers to New Orleans' community trust policy as a sanctuary city policy is not about comprehensive immigration reform. It is about anti-immigrant politics and fearmongering.    An immigration reform bill, such as the measure that passed the Senate in 2013 or the legislation that had 201 House cosponsors in the last Congress, would allow law-abiding immigrants to come out of the shadows and get right with the law, and it would enable immigration customs enforcement to focus its resources on deporting the worst elements. This kind of solution would help ensure that the city of New Orleans and all communities, citizens and immigrants alike, as well as the brave men and women serving in law enforcement are protected from harm.    And in closing, I thank the Chairman, and I look forward to a meaningful discussion in this hearing from our witnesses. Thank you, Mr. Chairman.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. The gentleman from Michigan yields back.    We have a very distinguished panel of witnesses, and I will begin by swearing them in. If you would, please rise.    Do you swear the testimony you are about to give is the truth, the whole truth, and nothing but the truth, so help you God?    May the record reflect all the witnesses answered in the affirmative. You may sit down.    We will introduce you en banc, and then I will recognize you individually for your opening statements. First, it is my pleasure to welcome the Honorable Jeff Landry, who is the attorney general for the State of Louisiana. Attorney General Landry joined the Louisiana National Guard in high school, taking part in Operation Desert Storm, and served as both a police officer and a sheriff's deputy. General Landry ran successfully for Congress in 2010 and served in the 112th Congress. He became Louisiana's attorney general on January 11, 2016. He has a bachelor's of science degree from the University of Southwestern Louisiana, which is now the University of Louisiana at Lafayette, and a law degree from Loyola University New Orleans' law school.    Welcome, Attorney General Landry.    The Honorable Michael Horowitz is the inspector general for the Department of Justice. He worked as an assistant U.S. attorney for the Southern District of New York before joining DOJ in 1999 where he served as Deputy Assistant Attorney General and chief of staff in the Criminal Division of Main Justice from 1999 to 2002. General Horowitz also served as Commissioner of the U.S. Sentencing Commission. He was sworn into his current position on April 16, 2012. He graduated with highest honors from Brandeis University and earned his law degree with high honors from Harvard Law School.    Welcome, Inspector General Horowitz.    Next is my pleasure to introduce Ms. Vanita Gupta. She is the Principal Deputy Assistant Attorney General and the head of the Civil Rights Division at the Department of Justice. Ms. Gupta worked as a civil rights attorney and deputy director of the American Civil Liberties Union. She became head of the Civil Rights Division in 2014. She earned her undergraduate degree with high honors from the Yale University and a law degree from the New York University School of Law.    Welcome, Madam Attorney General.    And Mr. Zach Butterworth is the director of Federal Affairs for the city of New Orleans, representing Mayor Mitchell Landrieu in the New Orleans Police Department, the international airport, and the regional transit authority, and water infrastructure system. Mr. Butterworth served as the legislative director and counsel to Senator Mary Landrieu and as senior counsel to our friend, Congressman Cedric Richmond. Mr. Butterworth graduated from LSU and Loyola University New Orleans College of Law. Welcome to each of you.    Attorney General Landry, you are recognized for your 5-minute opening.</t>
   </si>
   <si>
-    <t>Landry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Landry. Thank you, Mr. Chairman, Madam Ranking Member, for the opportunity to address this Committee on one aspect of a public crisis of our time, and that is illegal immigration. As Louisiana's chief legal officer, I am committed to ensuring the rule of law is followed by everyone.    Like each of you, I took an oath to defend the Constitution, and I intend to uphold it. Unfortunately, sanctuary city policies undermine our justice system and our national security. As I am sure you agree, government's most important function is for providing and securing the safety of her citizens.    Sanctuary policies not only jeopardize the ability to protect our citizens, but they also allow illegals to commit crimes, then roam free in our communities. It has been reported that cities with sanctuary policies have seen an increase in crime. One sanctuary city, Los Angeles, saw all crimes rise in 2015. Violent crimes was up 20 percent; homicides up 10 percent; shootings victims up almost 13 percent; rapes up almost 9 percent; robberies up 12 percent; and aggravated assaults up 27 percent.    What is more, ICE recently reviewed that over 1,800 illegals released by sanctuary cities were later rearrested almost 4,300 times, committing almost 7,500 new crimes, including rape and child sex abuse.    Sanctuary policies encourage further illegal immigration and waste much-needed public resources as they force the Federal Government to find and arrest deportable criminals already taken into custody by local law enforcement.    This spring, I advocated for legislation in Louisiana that would have increased public safety by incentivizing the government--government agencies to follow the law. Because of this effort, Lafayette Parish is no longer a sanctuary city parish. As of late Friday, the city of New Orleans has changed its policy allowing NOPD to now allegedly cooperate with Federal authorities.    By shining a bright light on this dangerous procedure, this Committee has already provided a catalyst for change. Let me be clear: I am not trying to become the immigration police. Between catching child predators, rooting out public corruption, and fighting Federal overreach, I have more than enough to do. But I am here today to push for a change because the Administration has not only decided not to enforce the law, but they also have used their power to coerce local jurisdictions in my State to institute sanctuary city policies.    In the great city of New Orleans, the Justice Department entered into a consent decree with the city that mandated that its police officers not make inquiries into an individual's immigration status or assist ICE unless there is a warrant or court order issued.    As a former police officer and sheriff's deputy, I find it unconscionable that criminals who are in our country illegally cannot be held unless a--until a warrant or a court order is issued. After all, American citizens can be stopped on reasonable suspicion, arrested on probable cause, and may not see a judge for 2 to 3 days. Illegal immigrants should not be given a greater right than we afford our own citizens.    After hearing testimony in the statehouse in Louisiana that the Department of Justice, the U.S. Department of Justice, mandated that the city of New Orleans adopt a sanctuary city policy as part of the consent decree, I wrote a letter to Attorney General Loretta Lynch asking for clarification. The response that this Committee and I received was a lengthy non-answer that we have unfortunately come to expect from the Administration.    However, a recent report by the DOJ's own inspector general confirmed that sanctuary jurisdictions violate Federal law by prohibiting communication with ICE officials. Furthermore, it explicitly declared that local jurisdictions comply with all Federal laws in order to receive Federal grants. All the while, the Administration has been rewarding sanctuary cities with hundreds of millions of dollars of Federal tax money.    I was criticized by the Governor of Louisiana and the mayor for allegedly jeopardizing State funding with the legislation that I supported. The truth is that the U.S. DOJ's mandated policy upon the city is what is jeopardizing their funding. Besides fiscal and legal issues, there are homeland security issues. Due to sanctuary city policies, foreign terrorists, such as members of ICE, have the ability to travel to a sanctuary city, commit a minor offense, and remain protected from being identified. And in the current environment, why would we discourage cooperation between State and local law enforcement?    Reducing crime and saving lives are not a partisan issue. In fact, politics never came up when I met with the family of St. John the Baptist Parish fire chief, Spencer Chauvin's family. Chief Chauvin was killed last month in the greater New Orleans area by an illegal alien with a lengthy criminal background who was in our country. The questions were not Republican or Democrat, conservative or liberal. This grieving family simply asked one thing that this Committee, Congress, and the Administration should absolutely answer: Why do we have to wait for illegals to victimize our citizens in a violent manner before deporting them?    And I pose to you an even humbler one: Why cannot the State--why cannot State and Federal law enforcement work collaboratively to prevent these types of actions?    Honorable Members, we need sound immigration policy that begins with securing the border and enforcing the immigration laws already on the books. Congress must act to support those of us at the State and local level who have been fighting these reckless sanctuary city policies.    I am proud that our efforts exposing the actions of DOJ and the city of New Orleans have resulted in substantive changes with the city's policy. Because of the efforts we made in Louisiana, our State no longer has any jurisdictions prohibiting them from communicating with Federal immigration authorities. Today, Louisiana is safer because of these changes. Thank you very much, and I look forward to answering any of your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Attorney General.    Inspector General Horowitz.</t>
   </si>
   <si>
-    <t>Horowitz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Horowitz. Mr. Chairman, Ranking Members, Members of the Committee, thank you for inviting me to testify before you today.    Earlier this year, the Department advised the Office of Inspector General that it had received information indicating that jurisdictions receiving Department grant funds may be in violation of title 8 United States Code, section 1373. The Department provided the OIG with grant information related to more than 140 State and local jurisdictions and asked our office to review the allegations.    We considered the matter as requested and subsequently provided the Department with a memorandum advising it of the steps we had taken and summarizing the information we had learned. We did so expeditiously because, in part, the Department's grant process was ongoing, and we found that the Department had not provided grant recipients with clear guidance as to whether section 1373 was an applicable Federal law with which recipients were expected to comply in order to satisfy relevant grant rules and regulations.    Based on a large number of jurisdictions cited by the Department and the need for us to review this expeditiously, we judgmentally selected 10 State, and local jurisdictions for further review. For each jurisdiction, we researched the local laws and policies that govern their interactions with U.S. Immigrations and Customs enforcement and interviewed ICE officials to gain their perspective on ICE's relationship with the jurisdictions.    Based on our research, we found that the laws and policies of several jurisdictions went beyond placing limitations on complying with civil immigration detainer requests and potentially limited the sharing of immigration status information with Federal immigration authorities.    We also found that the laws and policies of some jurisdictions in our sample group that address the handling of ICE detainer requests might have had a broader practical impact on the level of cooperation with ICE and therefore might be inconsistent with the intent of section 1373. ICE officials expressed a similar concern to us.    With regard to the New Orleans Police Department, we noted that its then existing policy broadly prohibited officers from disclosing a person's citizenship and immigration status information with an exception where the disclosure was ``required by Federal or State law.''    This savings clause language appeared to be potentially inconsistent with the plain language of section 1373 because, for example, section 1373 doesn't ``require'' cooperation with ICE, but rather prevents jurisdictions from prohibiting or restricting employees from providing immigration status to ICE upon request.    In our memorandum, we advise the Department of several steps it could consider taking to the extent its focus was to ensure grant recipient compliance with section 1373. Among the steps were to provide clear guidance to grant recipients regarding whether they would be expected to comply with section 1373 in order to satisfy relevant grant rules and regulations, to require grant applicants to provide certifications and supporting documentation regarding compliance with section 1373, and to consult with the Department's law enforcement counterparts at ICE and other agencies regarding such issues prior to grant awards.    We believe the steps we outlined would provide the Department with assurances that a grant applicant was cooperating--was operating in compliance with section 1373 and also would be helpful should the Department later refer alleged violations of section 1373 by grant recipients to the OIG for our investigation.    This concludes my statement, and I will be pleased to answer any questions that the Committee may have.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Mr. Inspector General.    Madam Attorney General.</t>
   </si>
   <si>
-    <t>Gupta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gupta. Thank you. Good morning. Good morning, Chairman Goodlatte, Chairman Gowdy, Ranking Member Zoe Lofgren, and distinguished members of Subcommittee. Thank you for the opportunity to speak before you today about the Justice Department's work to advance public safety and promote effective, constitutional, and community-oriented policing.    Around the country, State and local law enforcement serve as the first line of defense for public safety. They keep our families safe from harm, they fight crime on our streets, and as recent events painfully remind us, they do this demanding, often dangerous work, at great sacrifice and great personal risk.    So let us make no mistake: the vast majority of men and women who wear the badge serve our communities with professionalism, with integrity, and with distinction. They deserve our deepest respect and our steadfast support. Yet when police departments engage in a pattern or practice of unconstitutional policing, their actions can severely erode community trust and profoundly undermine public safety.    In 1994, Congress charged the Justice Department with a responsibility to investigate law enforcement agencies for a pattern or practice of conduct that violates Federal law, and when necessary, to develop remedies to eliminate such misconduct.    Today, I will discuss our work with the New Orleans Police Department by explaining the problems we found and the reforms that the city agreed to implement. In May 2010, New Orleans Mayor Mitch Landrieu requested that the Justice Department conduct an independent investigation of NOPD's systems and operations. In a letter, Mayor Landrieu stated that he inherited a police force described by many as one of the worst police departments in the country.    Following our fact-driven and comprehensive investigation, we published our findings in a detailed 141-page letter. Among other violations, we found evidence that NOPD was unfairly enforcing the law or failing to enforce the law based on race, ethnicity, national origin, and other protected characteristics. These discriminatory policing practices eroded trust. Crime victims and witnesses, especially in Latino communities, felt afraid to share information with the police. This hurt public safety.    In the context of reporting crime, one community member told us, ``Out of fear, we stay quiet.'' I know many law enforcement officials and leaders around the country understand these concerns and recognize the very critical and important link between community trust and public safety.    In 2012, New Orleans and the Justice Department entered into a comprehensive negotiated consent decree approved by the Federal court in 2013 to resolve our allegations of unlawful police misconduct. The decree requires NOPD to make important changes in policies and practices related to the use of force, stops, searches, and arrests, the prevention of discriminatory policing, and officer training oversight and supervision.    In February of this year, after seeking input from the New Orleans community, the court appointed monitor, the Federal district court, as well as the U.S. Departments of Justice and Homeland Security, NOPD issued a new policy to help officers provide services effectively and fairly to all people in the city, regardless of their immigration status or the color of their skin.    Last week, NOPD updated its policy to clarify that it complies with a specific Federal statute, 8 U.S.C., section 1373, to ensure that officers understand that they can send and receive information regarding an individual's immigration status and to most effectively advance nondiscriminatory policing. The policy also states that NOPD officers can take law enforcement action and assist in immigration enforcement when there is a threat to public safety, to execute criminal warrants, and to safely execute a court order.    By facilitating a culture of trust and cooperation, the policy will help local and Federal law enforcement protect public safety. The hardworking men and women of the New Orleans Police Department continue to do precisely that by fighting crime in partnering with Federal law enforcement to identify and prosecute people who have committed violent crimes.    We strongly believe that this policy will help restore trust with crime victims and witnesses, enhance the sharing of information, and, in so doing, make the entire New Orleans community safer. In New Orleans and in any city the Justice Department works with, real and lasting reform can't happen overnight, and we recognize the vital role of sustained collaboration with the entire community, from police officers to public officials and to community members.    And I want to commend officials from the city and the NOPD for their partnership throughout this process. And I view our dialogue today here as an important part of that same process about how police reform can help make the residents and officers of New Orleans safer for generations to come. I look forward to your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Gowdy. Thank you, Madam Attorney General.    Mr. Butterworth.</t>
   </si>
   <si>
-    <t>Butterworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Butterworth. Chairman Gowdy, Chairman Goodlatte, Ranking Member Lofgren, and Congressmen, my name is Zach Butterworth. I am the executive counsel and director of Federal relations for the city of New Orleans. Thank you for giving me the opportunity to provide testimony before the Committee today.</t>
   </si>
   <si>
@@ -229,9 +205,6 @@
     <t xml:space="preserve">    Mr. Gowdy. The gentleman from Louisiana is recognized.</t>
   </si>
   <si>
-    <t>Richmond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Richmond. Thank you, Mr. Chairman, and thank you to the Ranking Member for allowing me to ask some questions.    Let me just start with a couple of things here. And in the opening testimony of our Chairman, he said that he believed that the consent decree between the City of New Orleans and the Department of Justice was done through collusion. And I will just tell you that as an African-American male who grew up in New Orleans who had to deal with the New Orleans Police Department, the police department went under consent decree because of use of force, failing to investigate it, stop and searches without cause, discrimination against African-Americans, failing to investigate sex crimes against females in domestic violence, a paid detail system that invited corruption, failing to sufficiently embrace community policing, and immigration as one of them. So I just would like to clear up for anyone who thinks that, you know, we colluded all of that, it is very convenient for a White male from Virginia to talk about collusion in a consent decree.    And Attorney General Landry, let me just applaud you for working on sanctuary cities, because you believe it is important, but I would ask, can you help our Chairman Goodlatte, because he has two sanctuary cities in Virginia, and if you are going to start cleaning up, start cleaning up at home. And while we go down the list, we have four in South Carolina, every parish in Colorado, we have Sioux City in Representative King's district, we have Rockwall, Dallas, and Travis in Texas. So if we are going to start talking about sanctuary cities, don't just pick mine that you would like to allege is a sanctuary city; let's talk about all of them, especially the people who are on the Committee.    And the other thing that we talked about was the unfortunate death of a fire chief, a very respected and loved fire chief in St. John Parish. And I think that incident happened because the person fell through the cracks, and that is what we should stop, but that has absolutely nothing to do with New Orleans. The guy didn't live in New Orleans, he was never arrested in New Orleans, the company he worked for was not in New Orleans. That has absolutely no connection to the city of New Orleans. Now, the company was operated out of St. Tammany Parish with an elected official as a co-owner, which I think is deplorable, and I think that that we should be looking at prosecution for, the owners of the company, but to just single out New Orleans as some city that decided all of a sudden that we wouldn't enforce the law is just incorrect.    Zach, Mr. Butterworth, let me just ask you a question. When did you all initiate trying to make sure that the city's policy was consistent with Federal law?</t>
   </si>
   <si>
@@ -265,9 +238,6 @@
     <t>412419</t>
   </si>
   <si>
-    <t>Raúl R. Labrador</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Labrador. Thank you, Mr. Chairman. Sanctuary city policies have transformed some of our greatest American cities. I am increasingly frustrated by these policies that are consistently implemented in the name of ``unbiased and community-based'' policing, as Deputy Attorney General Gupta has said.    The ramifications for public safety and the inability for ICE to complete its mission are severe, and not only affect the cities, but the surrounding communities are impacted as well. While some of the witnesses today, including Deputy Attorney General Gupta, would like to ignore this fact, the simple truth is that immigration enforcement is a critical function of the United States Government and one that must be supported and not undermined in this form.    Much of this debate centers around the practical application of 8 USC 1373 and whether a city that has implemented sanctuary policies can simultaneously comply with this section of law.    Mr. Horowitz, based on your findings, what do you believe that 8 USC 1373 requires of local jurisdictions?</t>
   </si>
   <si>
@@ -337,9 +307,6 @@
     <t xml:space="preserve">    Mr. Gowdy. The gentleman from Idaho yields back. The Chair would now recognize the gentleman from Illinois, Mr. Gutierrez.</t>
   </si>
   <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gutierrez. Thank you. I would like to note that we are not having a hearing today about gun violence, 500 people shot dead in Chicago, 3,000 this year; we are not having a hearing about police killing unarmed civilians; we are not having a hearing about the need for immigration reform or detention centers; we are not having a hearing about any of the really important things. We are having a hearing about a Donald Trump talking point that one he goes to again and again, the one he says that immigrants are killers, rapists, drug dealers, who are here to hurt people, not to build up our country like every other immigrant group that has come before them.    Today we are focusing on one of America's great cities, a city with a troubling past when it comes to respecting civil rights and building trust between the police and the community at large. And so I would think that we would want to work on building that trust between the police and the people, and that the efforts taken by people to build that trust shouldn't be undermined.    Lastly, I am just going to say, because it doesn't really matter, this hearing, it really doesn't. It is going to come and go. You guys got somebody to pay for your trips to come down here. It is not going to have an impact on anything. We are not going to change anything. This is just another political hearing.    But I just want to say that, you know, we could have actually spoken to a lot of very important issues that people want us to talk about, but it always seems the majority always says we should listen to people that are not in Washington, D.C., we should listen to local elected officials, that that is where democracy is blooming, but it seems like every time you guys say anything, they have an objection when they don't like it.    So having said that, I just want to say to my colleague from New Orleans, I would like to yield the remaining 3 minutes of my time to Mr. Richmond to ask questions.</t>
   </si>
   <si>
@@ -370,9 +337,6 @@
     <t>400220</t>
   </si>
   <si>
-    <t>Steve King</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. King. Thank you, Mr. Chairman. I thank the witnesses for your testimony here today. And I would turn first to Attorney General Landry, and I would like to--I would like to pose a broader concept here and then ask you to comment on that, and perhaps we will go a little deeper, and that is that, as I read Federal law and immigration law and as I understand it after these years on this Committee, it envisions in its entirety essentially vacuuming up the illegal people in the United States and all of those whom are encountered by law enforcement, it anticipates their removal from the United States, and it requires that when at least Federal law enforcement officers encounter someone who is unlawfully present in America, that they shall place them in removal proceedings.    Would you agree so far with my characterization of Federal law?</t>
   </si>
   <si>
@@ -445,9 +409,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Objection.</t>
   </si>
   <si>
@@ -574,9 +535,6 @@
     <t>412619</t>
   </si>
   <si>
-    <t>Ken Buck</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Buck. Thank you, Mr. Chairman.    Mr. Landry, have you ever prosecuted a case?</t>
   </si>
   <si>
@@ -716,9 +674,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman, for holding this hearing, but I have to confess that I am more than just a little bit embarrassed that the American people have to see a congressional hearing dealing with the absurdity of the subject matter that we are dealing with today.    Right now, Mr. Chairman, at schools across America, we are hopefully teaching our kids about the Constitution. And with all due respect to my colleagues across the aisle, who keep saying that we are hypocritical for asserting that the Federal Government has a role here, I hope we are doing a better job of teaching our kids about the Constitution than we apparently did in teaching some of our colleagues. Because the very first sentence of the Constitution in the preamble is where kids learn that the primary role, the primary role of the Federal Government is to provide for the common defense, and the single-most important part of that is ensuring the sovereignty and integrity of our territorial borders.    Mr. Chairman, that is the reason that we have a Federal Government, that is the one thing that the Federal Government is supposed to do, that is the business the Federal Government is supposed to be in. It is not supposed to be mandating healthcare decisions for Americans, it is not supposed to be interfering with teachers and parents in decisions about kids' education. We have a Federal Government to protect Americans against people from outside our borders who might cause us harm, to protect Americans like Kate Steinle in San Francisco and Spencer Chauvin and Jermaine Starr in Louisiana, and Peter Hacking and Grayson Hacking and Ellie Bryant in my district in northeast Texas, all of whom were killed by illegal aliens who violated the sovereignty and integrity of our territorial borders to come to this country. And, tragically, these are just five of the countless victims killed by illegal aliens every year.    So, Mr. Chairman, if that is the primary role of our Federal Government, if that is why we have a Federal Government, are we really having a hearing about the fact that instead of enforcing our Federal immigration laws, the Federal Government is doing the exact opposite and, as General Landry testified, is actually coercing cities into not complying with Federal immigration laws? And then to add insult to injury, the American people tuning in to this hearing today see that the very same Department of Justice that is tying the hands of law enforcement in places like New Orleans turns around and rewards so-called sanctuary cities by handing out Federal funds even though the conditions for those Federal funds is that the recipients abide by Federal law?    And did I really hear correctly that two-thirds of all Federal money going to law enforcement is going to ten jurisdictions that refuse to comply with Federal immigration laws and that harbor the most violent, violent criminal aliens and refuse to cooperate with the Federal Government to deport them? That, Mr. Chairman, is as shocking as it is shameful.    General Landry, you obviously share my frustration. It is why you wrote to Attorney General Loretta Lynch and asked her whether the Department of Justice, at the same time that they were enthusiastically approving and supporting the New Orleans Police Department policy, was actually also requiring the City of New Orleans to adopt that sanctuary city's policy as part of the consent decree. Did Attorney General Lynch respond to you?</t>
@@ -1297,11 +1252,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1321,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1349,11 +1300,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1373,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1401,11 +1348,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1425,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>22</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1453,11 +1396,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1477,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1505,11 +1444,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1529,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1557,11 +1492,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1581,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1609,11 +1540,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1633,13 +1562,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1659,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1685,13 +1610,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1711,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1737,13 +1658,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1765,11 +1684,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1789,13 +1706,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1815,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
         <v>34</v>
-      </c>
-      <c r="H22" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1841,13 +1754,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1867,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1893,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1919,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1945,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1971,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1997,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2023,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2049,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2075,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2101,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2127,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2153,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2179,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2205,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2231,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2257,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2283,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2309,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2335,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2361,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2387,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2413,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>19</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2441,11 +2308,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2465,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2491,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2517,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2545,11 +2404,9 @@
       <c r="F50" t="s">
         <v>11</v>
       </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2569,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2595,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2621,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>18</v>
-      </c>
-      <c r="G53" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2647,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2673,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2699,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2725,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2751,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2777,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
         <v>71</v>
-      </c>
-      <c r="H59" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2805,11 +2644,9 @@
       <c r="F60" t="s">
         <v>11</v>
       </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2829,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>82</v>
-      </c>
-      <c r="G61" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2855,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2881,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>82</v>
-      </c>
-      <c r="G63" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2907,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>18</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2933,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>82</v>
-      </c>
-      <c r="G65" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2959,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2985,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3011,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3037,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3063,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
         <v>83</v>
-      </c>
-      <c r="H70" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3089,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3115,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3141,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3167,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3193,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3219,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3245,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>18</v>
-      </c>
-      <c r="G77" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3271,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3297,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3323,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>82</v>
-      </c>
-      <c r="G80" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3349,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3375,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>82</v>
-      </c>
-      <c r="G82" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3403,11 +3196,9 @@
       <c r="F83" t="s">
         <v>11</v>
       </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3427,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>18</v>
-      </c>
-      <c r="G84" t="s">
-        <v>107</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3453,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3479,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>18</v>
-      </c>
-      <c r="G86" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3505,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3531,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3557,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3583,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3609,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3637,11 +3412,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3661,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>117</v>
-      </c>
-      <c r="G93" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3687,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>18</v>
-      </c>
-      <c r="G94" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3713,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>117</v>
-      </c>
-      <c r="G95" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3739,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>18</v>
-      </c>
-      <c r="G96" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3765,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>117</v>
-      </c>
-      <c r="G97" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3791,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>18</v>
-      </c>
-      <c r="G98" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3817,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>117</v>
-      </c>
-      <c r="G99" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3843,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3869,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>117</v>
-      </c>
-      <c r="G101" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3895,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>18</v>
-      </c>
-      <c r="G102" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3921,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>117</v>
-      </c>
-      <c r="G103" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3947,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>18</v>
-      </c>
-      <c r="G104" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3973,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>117</v>
-      </c>
-      <c r="G105" t="s">
+        <v>106</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
         <v>118</v>
-      </c>
-      <c r="H105" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3999,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>18</v>
-      </c>
-      <c r="G106" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4025,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>117</v>
-      </c>
-      <c r="G107" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4051,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>18</v>
-      </c>
-      <c r="G108" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4077,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>117</v>
-      </c>
-      <c r="G109" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4103,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>18</v>
-      </c>
-      <c r="G110" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4129,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>117</v>
-      </c>
-      <c r="G111" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4155,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>18</v>
-      </c>
-      <c r="G112" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4181,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>117</v>
-      </c>
-      <c r="G113" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4209,11 +3940,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4233,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4259,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>117</v>
-      </c>
-      <c r="G116" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4285,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>142</v>
-      </c>
-      <c r="G117" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4313,11 +4036,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4337,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>142</v>
-      </c>
-      <c r="G119" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4363,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>117</v>
-      </c>
-      <c r="G120" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4389,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>142</v>
-      </c>
-      <c r="G121" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4415,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>117</v>
-      </c>
-      <c r="G122" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4441,13 +4154,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>142</v>
-      </c>
-      <c r="G123" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4469,11 +4180,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4493,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>142</v>
-      </c>
-      <c r="G125" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4521,11 +4228,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4545,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>142</v>
-      </c>
-      <c r="G127" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4573,11 +4276,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4597,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4625,11 +4324,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4649,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4677,11 +4372,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4701,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>117</v>
-      </c>
-      <c r="G133" t="s">
-        <v>118</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4729,11 +4420,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4753,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>142</v>
-      </c>
-      <c r="G135" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4779,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4805,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>142</v>
-      </c>
-      <c r="G137" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4831,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4857,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>142</v>
-      </c>
-      <c r="G139" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4883,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4909,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>142</v>
-      </c>
-      <c r="G141" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4935,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4961,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>142</v>
-      </c>
-      <c r="G143" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4987,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5013,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>142</v>
-      </c>
-      <c r="G145" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5039,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5065,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>142</v>
-      </c>
-      <c r="G147" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5091,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5117,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>142</v>
-      </c>
-      <c r="G149" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5145,11 +4804,9 @@
       <c r="F150" t="s">
         <v>11</v>
       </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5169,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>18</v>
-      </c>
-      <c r="G151" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5195,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5221,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>18</v>
-      </c>
-      <c r="G153" t="s">
-        <v>71</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5247,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>142</v>
-      </c>
-      <c r="G154" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5275,11 +4924,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5299,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>142</v>
-      </c>
-      <c r="G156" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5327,11 +4972,9 @@
       <c r="F157" t="s">
         <v>11</v>
       </c>
-      <c r="G157" t="s">
-        <v>12</v>
-      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5351,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>142</v>
-      </c>
-      <c r="G158" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5379,11 +5020,9 @@
       <c r="F159" t="s">
         <v>11</v>
       </c>
-      <c r="G159" t="s">
-        <v>12</v>
-      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5403,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>185</v>
-      </c>
-      <c r="G160" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5429,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>18</v>
-      </c>
-      <c r="G161" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5455,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>185</v>
-      </c>
-      <c r="G162" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5481,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>18</v>
-      </c>
-      <c r="G163" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5507,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>185</v>
-      </c>
-      <c r="G164" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5533,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>18</v>
-      </c>
-      <c r="G165" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5559,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>185</v>
-      </c>
-      <c r="G166" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5585,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5611,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>185</v>
-      </c>
-      <c r="G168" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5637,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5663,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>185</v>
-      </c>
-      <c r="G170" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5689,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5715,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
+        <v>172</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
         <v>185</v>
-      </c>
-      <c r="G172" t="s">
-        <v>186</v>
-      </c>
-      <c r="H172" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5741,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5767,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>185</v>
-      </c>
-      <c r="G174" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5793,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5819,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>185</v>
-      </c>
-      <c r="G176" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5845,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5871,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>185</v>
-      </c>
-      <c r="G178" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5897,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>18</v>
-      </c>
-      <c r="G179" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5923,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>185</v>
-      </c>
-      <c r="G180" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5949,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>18</v>
-      </c>
-      <c r="G181" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5975,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>185</v>
-      </c>
-      <c r="G182" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6001,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>18</v>
-      </c>
-      <c r="G183" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6027,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>185</v>
-      </c>
-      <c r="G184" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6053,13 +5642,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>18</v>
-      </c>
-      <c r="G185" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6079,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>185</v>
-      </c>
-      <c r="G186" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6105,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>18</v>
-      </c>
-      <c r="G187" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6131,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>185</v>
-      </c>
-      <c r="G188" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6157,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>18</v>
-      </c>
-      <c r="G189" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6183,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>185</v>
-      </c>
-      <c r="G190" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6209,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>18</v>
-      </c>
-      <c r="G191" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6235,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>185</v>
-      </c>
-      <c r="G192" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6261,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>18</v>
-      </c>
-      <c r="G193" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6287,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>185</v>
-      </c>
-      <c r="G194" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6313,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>18</v>
-      </c>
-      <c r="G195" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6339,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>185</v>
-      </c>
-      <c r="G196" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6365,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>18</v>
-      </c>
-      <c r="G197" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6391,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>185</v>
-      </c>
-      <c r="G198" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6417,13 +5978,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>18</v>
-      </c>
-      <c r="G199" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6443,13 +6002,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>185</v>
-      </c>
-      <c r="G200" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6469,13 +6026,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>18</v>
-      </c>
-      <c r="G201" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6495,13 +6050,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>185</v>
-      </c>
-      <c r="G202" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6521,13 +6074,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>18</v>
-      </c>
-      <c r="G203" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6547,13 +6098,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>185</v>
-      </c>
-      <c r="G204" t="s">
-        <v>186</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6575,11 +6124,9 @@
       <c r="F205" t="s">
         <v>11</v>
       </c>
-      <c r="G205" t="s">
-        <v>12</v>
-      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6599,13 +6146,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>233</v>
-      </c>
-      <c r="G206" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6625,13 +6170,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>18</v>
-      </c>
-      <c r="G207" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6651,13 +6194,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>233</v>
-      </c>
-      <c r="G208" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6677,13 +6218,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>18</v>
-      </c>
-      <c r="G209" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6703,13 +6242,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>233</v>
-      </c>
-      <c r="G210" t="s">
-        <v>234</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6731,11 +6268,9 @@
       <c r="F211" t="s">
         <v>11</v>
       </c>
-      <c r="G211" t="s">
-        <v>12</v>
-      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6755,13 +6290,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>142</v>
-      </c>
-      <c r="G212" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6783,11 +6316,9 @@
       <c r="F213" t="s">
         <v>11</v>
       </c>
-      <c r="G213" t="s">
-        <v>12</v>
-      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6807,13 +6338,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6835,11 +6364,9 @@
       <c r="F215" t="s">
         <v>11</v>
       </c>
-      <c r="G215" t="s">
-        <v>12</v>
-      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6859,13 +6386,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>18</v>
-      </c>
-      <c r="G216" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6887,11 +6412,9 @@
       <c r="F217" t="s">
         <v>11</v>
       </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6911,13 +6434,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6939,11 +6460,9 @@
       <c r="F219" t="s">
         <v>11</v>
       </c>
-      <c r="G219" t="s">
-        <v>12</v>
-      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6963,13 +6482,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6991,11 +6508,9 @@
       <c r="F221" t="s">
         <v>11</v>
       </c>
-      <c r="G221" t="s">
-        <v>12</v>
-      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7015,13 +6530,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7043,11 +6556,9 @@
       <c r="F223" t="s">
         <v>11</v>
       </c>
-      <c r="G223" t="s">
-        <v>12</v>
-      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7067,13 +6578,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
-        <v>18</v>
-      </c>
-      <c r="G224" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7095,11 +6604,9 @@
       <c r="F225" t="s">
         <v>11</v>
       </c>
-      <c r="G225" t="s">
-        <v>12</v>
-      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7119,13 +6626,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7147,11 +6652,9 @@
       <c r="F227" t="s">
         <v>11</v>
       </c>
-      <c r="G227" t="s">
-        <v>12</v>
-      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7171,13 +6674,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7199,11 +6700,9 @@
       <c r="F229" t="s">
         <v>11</v>
       </c>
-      <c r="G229" t="s">
-        <v>12</v>
-      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7223,13 +6722,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7251,11 +6748,9 @@
       <c r="F231" t="s">
         <v>11</v>
       </c>
-      <c r="G231" t="s">
-        <v>12</v>
-      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7275,13 +6770,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>18</v>
-      </c>
-      <c r="G232" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7303,11 +6796,9 @@
       <c r="F233" t="s">
         <v>11</v>
       </c>
-      <c r="G233" t="s">
-        <v>12</v>
-      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7327,13 +6818,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>18</v>
-      </c>
-      <c r="G234" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7355,11 +6844,9 @@
       <c r="F235" t="s">
         <v>11</v>
       </c>
-      <c r="G235" t="s">
-        <v>12</v>
-      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7379,13 +6866,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>18</v>
-      </c>
-      <c r="G236" t="s">
-        <v>34</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7407,11 +6892,9 @@
       <c r="F237" t="s">
         <v>11</v>
       </c>
-      <c r="G237" t="s">
-        <v>12</v>
-      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7431,13 +6914,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>18</v>
-      </c>
-      <c r="G238" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7459,11 +6940,9 @@
       <c r="F239" t="s">
         <v>11</v>
       </c>
-      <c r="G239" t="s">
-        <v>12</v>
-      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7483,13 +6962,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>18</v>
-      </c>
-      <c r="G240" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -7511,11 +6988,9 @@
       <c r="F241" t="s">
         <v>11</v>
       </c>
-      <c r="G241" t="s">
-        <v>12</v>
-      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -7535,13 +7010,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>18</v>
-      </c>
-      <c r="G242" t="s">
-        <v>28</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7563,11 +7036,9 @@
       <c r="F243" t="s">
         <v>11</v>
       </c>
-      <c r="G243" t="s">
-        <v>12</v>
-      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -7587,13 +7058,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>18</v>
-      </c>
-      <c r="G244" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7615,11 +7084,9 @@
       <c r="F245" t="s">
         <v>11</v>
       </c>
-      <c r="G245" t="s">
-        <v>12</v>
-      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -7639,13 +7106,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>18</v>
-      </c>
-      <c r="G246" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7667,11 +7132,9 @@
       <c r="F247" t="s">
         <v>11</v>
       </c>
-      <c r="G247" t="s">
-        <v>12</v>
-      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -7691,13 +7154,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>18</v>
-      </c>
-      <c r="G248" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7719,11 +7180,9 @@
       <c r="F249" t="s">
         <v>11</v>
       </c>
-      <c r="G249" t="s">
-        <v>12</v>
-      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7743,13 +7202,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>142</v>
-      </c>
-      <c r="G250" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7771,11 +7228,9 @@
       <c r="F251" t="s">
         <v>11</v>
       </c>
-      <c r="G251" t="s">
-        <v>12</v>
-      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -7795,13 +7250,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>142</v>
-      </c>
-      <c r="G252" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -7823,11 +7276,9 @@
       <c r="F253" t="s">
         <v>11</v>
       </c>
-      <c r="G253" t="s">
-        <v>12</v>
-      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -7847,13 +7298,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>142</v>
-      </c>
-      <c r="G254" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7873,13 +7322,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>18</v>
-      </c>
-      <c r="G255" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7899,13 +7346,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>142</v>
-      </c>
-      <c r="G256" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7925,13 +7370,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>18</v>
-      </c>
-      <c r="G257" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7951,13 +7394,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>142</v>
-      </c>
-      <c r="G258" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7977,13 +7418,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>18</v>
-      </c>
-      <c r="G259" t="s">
-        <v>25</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8003,13 +7442,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>142</v>
-      </c>
-      <c r="G260" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8029,13 +7466,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>18</v>
-      </c>
-      <c r="G261" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8055,13 +7490,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>142</v>
-      </c>
-      <c r="G262" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8081,13 +7514,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>18</v>
-      </c>
-      <c r="G263" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8107,13 +7538,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>142</v>
-      </c>
-      <c r="G264" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8135,11 +7564,9 @@
       <c r="F265" t="s">
         <v>11</v>
       </c>
-      <c r="G265" t="s">
-        <v>12</v>
-      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8159,13 +7586,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>142</v>
-      </c>
-      <c r="G266" t="s">
-        <v>143</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8187,11 +7612,9 @@
       <c r="F267" t="s">
         <v>11</v>
       </c>
-      <c r="G267" t="s">
-        <v>12</v>
-      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
